--- a/form-files/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
+++ b/form-files/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="480" windowWidth="16212" windowHeight="8652"/>
+    <workbookView xWindow="5420" yWindow="4720" windowWidth="39060" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>type</t>
   </si>
@@ -205,6 +210,9 @@
   </si>
   <si>
     <t>select_multiple</t>
+  </si>
+  <si>
+    <t>hideInContents</t>
   </si>
 </sst>
 </file>
@@ -563,30 +571,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
-    <col min="6" max="6" width="41.88671875" customWidth="1"/>
+    <col min="3" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" customWidth="1"/>
     <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" ht="16.75" customHeight="1">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -629,8 +638,11 @@
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.75" customHeight="1">
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
@@ -638,14 +650,17 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" ht="16.75" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
@@ -658,7 +673,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" ht="16.75" customHeight="1">
       <c r="C5" s="1" t="s">
         <v>62</v>
       </c>
@@ -672,13 +687,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" ht="16.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" ht="16.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -686,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" ht="16.75" customHeight="1">
       <c r="C8" s="1" t="s">
         <v>61</v>
       </c>
@@ -703,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" ht="16.75" customHeight="1">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -713,7 +728,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" ht="16.75" customHeight="1">
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -724,8 +739,11 @@
       <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.75" customHeight="1">
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
@@ -752,9 +770,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:15" ht="16.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -766,14 +789,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="19.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -784,7 +807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="19.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -795,7 +818,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="19.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -806,7 +829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="19.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -817,7 +840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="19.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -828,7 +851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="19.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -839,7 +862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="19.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -850,7 +873,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" ht="19.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -861,7 +884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="19.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -872,7 +895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="19.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -885,6 +908,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -892,18 +920,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -914,7 +942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -922,7 +950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -930,7 +958,7 @@
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -938,7 +966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -946,7 +974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="18" customHeight="1">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -956,5 +984,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/form-files/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
+++ b/form-files/tables/customAppearance/forms/customAppearance/customAppearance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="4720" windowWidth="39060" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="5420" yWindow="4720" windowWidth="25820" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>type</t>
   </si>
@@ -32,9 +32,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>templatePath</t>
   </si>
   <si>
@@ -213,6 +210,15 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>((data('rating') == null) ? 5 : data('rating'))</t>
   </si>
 </sst>
 </file>
@@ -571,33 +577,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.6328125" customWidth="1"/>
+    <col min="2" max="2" width="43.6328125" customWidth="1"/>
+    <col min="3" max="4" width="27.1796875" customWidth="1"/>
+    <col min="5" max="6" width="24.81640625" customWidth="1"/>
+    <col min="7" max="7" width="41.81640625" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.75" customHeight="1">
+    <row r="1" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -606,171 +611,187 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.75" customHeight="1">
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.75" customHeight="1">
+    <row r="3" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="16.75" customHeight="1">
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.75" customHeight="1">
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.75" customHeight="1">
-      <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.75" customHeight="1">
+    <row r="9" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="16.75" customHeight="1">
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.75" customHeight="1">
+    <row r="11" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H12" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="1">
+      <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.75" customHeight="1"/>
+    <row r="13" spans="1:15" ht="16.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -789,121 +810,121 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.75" customHeight="1">
+    <row r="1" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="19.75" customHeight="1">
+    </row>
+    <row r="2" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.75" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="19.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="19.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="19.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="8" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="9" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:3" ht="19.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="19.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -920,66 +941,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="B3" s="1">
         <v>20130408</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
